--- a/campaign/Lawn Sign.Britannia.xlsx
+++ b/campaign/Lawn Sign.Britannia.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Britannia Woods" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Britannia Woods'!$B$1:$F$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Britannia Woods'!$A$1:$H$38</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="57">
   <si>
     <t>Street Number</t>
   </si>
@@ -158,6 +158,36 @@
   </si>
   <si>
     <t>Williams</t>
+  </si>
+  <si>
+    <t>Landsborough Ave</t>
+  </si>
+  <si>
+    <t>Chan</t>
+  </si>
+  <si>
+    <t>Randhawa</t>
+  </si>
+  <si>
+    <t>Lafayette Dr</t>
+  </si>
+  <si>
+    <t>Hoang</t>
+  </si>
+  <si>
+    <t>Dhanju</t>
+  </si>
+  <si>
+    <t>Anwar</t>
+  </si>
+  <si>
+    <t>Shaikh</t>
+  </si>
+  <si>
+    <t>Rana</t>
+  </si>
+  <si>
+    <t>920</t>
   </si>
 </sst>
 </file>
@@ -593,16 +623,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
@@ -633,60 +664,54 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="6">
-        <v>41153</v>
-      </c>
-      <c r="B2" s="2">
-        <v>238</v>
+    <row r="2" spans="1:8" hidden="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3">
+        <v>533</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
         <v>31</v>
       </c>
       <c r="H2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="6">
-        <v>41153</v>
-      </c>
-      <c r="B3" s="2">
-        <v>286</v>
+    <row r="3" spans="1:8" hidden="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3">
+        <v>552</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
         <v>31</v>
       </c>
       <c r="H3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="6">
-        <v>41153</v>
-      </c>
-      <c r="B4" s="2">
-        <v>281</v>
+    <row r="4" spans="1:8" hidden="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3">
+        <v>531</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
       </c>
       <c r="H4" t="s">
@@ -698,15 +723,15 @@
         <v>41153</v>
       </c>
       <c r="B5" s="2">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
         <v>31</v>
       </c>
       <c r="H5" t="s">
@@ -718,13 +743,13 @@
         <v>41153</v>
       </c>
       <c r="B6" s="2">
-        <v>5065</v>
+        <v>286</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
@@ -738,18 +763,15 @@
         <v>41153</v>
       </c>
       <c r="B7" s="2">
-        <v>778</v>
+        <v>281</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
       </c>
       <c r="H7" t="s">
@@ -761,15 +783,15 @@
         <v>41153</v>
       </c>
       <c r="B8" s="2">
-        <v>782</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
         <v>31</v>
       </c>
       <c r="H8" t="s">
@@ -781,13 +803,13 @@
         <v>41153</v>
       </c>
       <c r="B9" s="2">
-        <v>648</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
         <v>31</v>
@@ -800,54 +822,57 @@
       <c r="A10" s="6">
         <v>41153</v>
       </c>
-      <c r="B10" s="2">
-        <v>655</v>
+      <c r="B10" s="3">
+        <v>621</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
         <v>31</v>
       </c>
       <c r="H10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" hidden="1">
       <c r="A11" s="6">
         <v>41153</v>
       </c>
       <c r="B11" s="2">
-        <v>637</v>
+        <v>778</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
         <v>31</v>
       </c>
       <c r="H11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" hidden="1">
       <c r="A12" s="6">
         <v>41153</v>
       </c>
       <c r="B12" s="2">
-        <v>645</v>
+        <v>782</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
         <v>31</v>
@@ -856,7 +881,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" hidden="1">
       <c r="A13" s="6">
         <v>41153</v>
       </c>
@@ -873,7 +898,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" hidden="1">
       <c r="A14" s="6">
         <v>41153</v>
       </c>
@@ -891,14 +916,17 @@
       </c>
     </row>
     <row r="15" spans="1:8">
+      <c r="A15" s="6">
+        <v>41153</v>
+      </c>
       <c r="B15" s="2">
-        <v>5186</v>
+        <v>266</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
         <v>31</v>
@@ -907,20 +935,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" hidden="1">
       <c r="A16" s="6">
         <v>41153</v>
       </c>
       <c r="B16" s="2">
-        <v>138</v>
+        <v>285</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
       </c>
       <c r="H16" t="s">
@@ -929,16 +957,16 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="6">
-        <v>41153</v>
-      </c>
-      <c r="B17" s="2">
-        <v>220</v>
+        <v>43344</v>
+      </c>
+      <c r="B17" s="3">
+        <v>763</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
+        <v>39</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E17" t="s">
         <v>31</v>
@@ -952,13 +980,13 @@
         <v>41153</v>
       </c>
       <c r="B18" s="2">
-        <v>266</v>
+        <v>648</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
         <v>31</v>
@@ -967,18 +995,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" hidden="1">
       <c r="A19" s="6">
         <v>41153</v>
       </c>
       <c r="B19" s="2">
-        <v>285</v>
+        <v>655</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
         <v>31</v>
@@ -987,20 +1015,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" hidden="1">
       <c r="A20" s="6">
-        <v>41153</v>
+        <v>43344</v>
       </c>
       <c r="B20" s="3">
-        <v>621</v>
+        <v>808</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="F20" t="s">
         <v>31</v>
       </c>
       <c r="H20" t="s">
@@ -1009,7 +1035,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
-        <v>43344</v>
+        <v>41153</v>
       </c>
       <c r="B21" s="3">
         <v>808</v>
@@ -1018,155 +1044,297 @@
         <v>14</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="E21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="6">
+      <c r="B22" s="2">
+        <v>5186</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1">
+      <c r="A23" s="6">
+        <v>41153</v>
+      </c>
+      <c r="B23" s="2">
+        <v>268</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6">
+        <v>41153</v>
+      </c>
+      <c r="B24" s="2">
+        <v>637</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1">
+      <c r="A25" s="6">
+        <v>41153</v>
+      </c>
+      <c r="B25" s="2">
+        <v>645</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6">
         <v>43344</v>
       </c>
-      <c r="B22" s="3">
-        <v>763</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="6">
-        <v>43344</v>
-      </c>
-      <c r="B23" s="3">
+      <c r="B26" s="3">
         <v>5352</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C26" t="s">
         <v>36</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D26" t="s">
         <v>37</v>
       </c>
-      <c r="E23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="6"/>
-      <c r="B24" s="3">
-        <v>533</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="6"/>
-      <c r="B25" s="3">
-        <v>552</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="6"/>
-      <c r="B26" s="3">
-        <v>531</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="6">
+        <v>41153</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5065</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1">
+      <c r="A28" s="6"/>
+      <c r="B28" s="3">
+        <v>539</v>
+      </c>
+      <c r="C28" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="6"/>
-      <c r="B27" s="3">
-        <v>539</v>
-      </c>
-      <c r="C27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="B28" s="3">
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1">
+      <c r="B29" s="3">
         <v>920</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="B29" s="3">
-        <v>928</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1">
+      <c r="B30" s="3">
+        <v>928</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
         <v>38</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1">
+      <c r="B31" s="2">
+        <v>5495</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1">
+      <c r="B32" s="2">
+        <v>5519</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" hidden="1">
+      <c r="B33" s="2">
+        <v>738</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" hidden="1">
+      <c r="B34" s="2">
+        <v>1058</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="2">
+        <v>506</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" hidden="1">
+      <c r="B36" s="2">
+        <v>604</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="2">
+        <v>5152</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" hidden="1">
+      <c r="B38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:F20">
-    <filterColumn colId="3"/>
+  <autoFilter ref="A1:H38">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <sortState ref="A2:H26">
+      <sortCondition ref="C1:C29"/>
+    </sortState>
   </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions headings="1" gridLines="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/campaign/Lawn Sign.Britannia.xlsx
+++ b/campaign/Lawn Sign.Britannia.xlsx
@@ -627,7 +627,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B24" sqref="B24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/campaign/Lawn Sign.Britannia.xlsx
+++ b/campaign/Lawn Sign.Britannia.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Britannia Woods" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Britannia Woods'!$A$1:$H$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Britannia Woods'!$A$1:$H$39</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="68">
   <si>
     <t>Street Number</t>
   </si>
@@ -187,7 +187,40 @@
     <t>Rana</t>
   </si>
   <si>
-    <t>920</t>
+    <t>Williamson</t>
+  </si>
+  <si>
+    <t>5495</t>
+  </si>
+  <si>
+    <t>LANDSBOROUGH AVE</t>
+  </si>
+  <si>
+    <t>5506</t>
+  </si>
+  <si>
+    <t>WOODCHASE CRES</t>
+  </si>
+  <si>
+    <t>CHAUVET</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>BRISTOL RD E</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>Tran</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>TRAN</t>
   </si>
 </sst>
 </file>
@@ -623,17 +656,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:D24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
@@ -664,7 +696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1">
+    <row r="2" spans="1:8">
       <c r="A2" s="6"/>
       <c r="B2" s="3">
         <v>533</v>
@@ -682,7 +714,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="3">
         <v>552</v>
@@ -700,7 +732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="3">
         <v>531</v>
@@ -838,7 +870,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1">
+    <row r="11" spans="1:8">
       <c r="A11" s="6">
         <v>41153</v>
       </c>
@@ -861,7 +893,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1">
+    <row r="12" spans="1:8">
       <c r="A12" s="6">
         <v>41153</v>
       </c>
@@ -881,7 +913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1">
+    <row r="13" spans="1:8">
       <c r="A13" s="6">
         <v>41153</v>
       </c>
@@ -898,7 +930,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1">
+    <row r="14" spans="1:8">
       <c r="A14" s="6">
         <v>41153</v>
       </c>
@@ -935,7 +967,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1">
+    <row r="16" spans="1:8">
       <c r="A16" s="6">
         <v>41153</v>
       </c>
@@ -995,7 +1027,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1">
+    <row r="19" spans="1:8">
       <c r="A19" s="6">
         <v>41153</v>
       </c>
@@ -1015,7 +1047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1">
+    <row r="20" spans="1:8">
       <c r="A20" s="6">
         <v>43344</v>
       </c>
@@ -1065,7 +1097,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1">
+    <row r="23" spans="1:8">
       <c r="A23" s="6">
         <v>41153</v>
       </c>
@@ -1105,7 +1137,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1">
+    <row r="25" spans="1:8">
       <c r="A25" s="6">
         <v>41153</v>
       </c>
@@ -1165,7 +1197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1">
+    <row r="28" spans="1:8">
       <c r="A28" s="6"/>
       <c r="B28" s="3">
         <v>539</v>
@@ -1179,8 +1211,11 @@
       <c r="E28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" hidden="1">
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="B29" s="3">
         <v>920</v>
       </c>
@@ -1194,7 +1229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1">
+    <row r="30" spans="1:8">
       <c r="B30" s="3">
         <v>928</v>
       </c>
@@ -1208,7 +1243,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1">
+    <row r="31" spans="1:8">
       <c r="B31" s="2">
         <v>5495</v>
       </c>
@@ -1222,7 +1257,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1">
+    <row r="32" spans="1:8">
       <c r="B32" s="2">
         <v>5519</v>
       </c>
@@ -1236,7 +1271,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1">
+    <row r="33" spans="2:8">
       <c r="B33" s="2">
         <v>738</v>
       </c>
@@ -1247,7 +1282,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1">
+    <row r="34" spans="2:8">
       <c r="B34" s="2">
         <v>1058</v>
       </c>
@@ -1261,7 +1296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:8">
       <c r="B35" s="2">
         <v>506</v>
       </c>
@@ -1271,11 +1306,8 @@
       <c r="D35" t="s">
         <v>53</v>
       </c>
-      <c r="E35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" hidden="1">
+    </row>
+    <row r="36" spans="2:8">
       <c r="B36" s="2">
         <v>604</v>
       </c>
@@ -1289,7 +1321,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:8">
       <c r="B37" s="2">
         <v>5152</v>
       </c>
@@ -1302,36 +1334,98 @@
       <c r="E37" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" hidden="1">
-      <c r="B38" s="5" t="s">
+      <c r="H37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="2">
+        <v>539</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
         <v>56</v>
       </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H38">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <sortState ref="A2:H26">
-      <sortCondition ref="C1:C29"/>
-    </sortState>
+  <autoFilter ref="A1:H39">
+    <filterColumn colId="4"/>
+    <filterColumn colId="7"/>
   </autoFilter>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/campaign/Lawn Sign.Britannia.xlsx
+++ b/campaign/Lawn Sign.Britannia.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Britannia Woods" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Britannia Woods'!$A$1:$H$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Britannia Woods'!$A$1:$H$44</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="70">
   <si>
     <t>Street Number</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t>TRAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apache Court.</t>
+  </si>
+  <si>
+    <t>Chen</t>
   </si>
 </sst>
 </file>
@@ -656,10 +662,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H43"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -696,7 +703,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" hidden="1">
       <c r="A2" s="6"/>
       <c r="B2" s="3">
         <v>533</v>
@@ -714,7 +721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" hidden="1">
       <c r="A3" s="6"/>
       <c r="B3" s="3">
         <v>552</v>
@@ -732,7 +739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" hidden="1">
       <c r="A4" s="6"/>
       <c r="B4" s="3">
         <v>531</v>
@@ -750,7 +757,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" hidden="1">
       <c r="A5" s="6">
         <v>41153</v>
       </c>
@@ -770,7 +777,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" hidden="1">
       <c r="A6" s="6">
         <v>41153</v>
       </c>
@@ -790,7 +797,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" hidden="1">
       <c r="A7" s="6">
         <v>41153</v>
       </c>
@@ -810,7 +817,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" hidden="1">
       <c r="A8" s="6">
         <v>41153</v>
       </c>
@@ -830,7 +837,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" hidden="1">
       <c r="A9" s="6">
         <v>41153</v>
       </c>
@@ -850,7 +857,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" hidden="1">
       <c r="A10" s="6">
         <v>41153</v>
       </c>
@@ -870,7 +877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" hidden="1">
       <c r="A11" s="6">
         <v>41153</v>
       </c>
@@ -893,7 +900,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" hidden="1">
       <c r="A12" s="6">
         <v>41153</v>
       </c>
@@ -947,7 +954,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" hidden="1">
       <c r="A15" s="6">
         <v>41153</v>
       </c>
@@ -967,7 +974,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" hidden="1">
       <c r="A16" s="6">
         <v>41153</v>
       </c>
@@ -987,7 +994,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" hidden="1">
       <c r="A17" s="6">
         <v>43344</v>
       </c>
@@ -1007,7 +1014,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" hidden="1">
       <c r="A18" s="6">
         <v>41153</v>
       </c>
@@ -1027,7 +1034,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" hidden="1">
       <c r="A19" s="6">
         <v>41153</v>
       </c>
@@ -1047,7 +1054,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" hidden="1">
       <c r="A20" s="6">
         <v>43344</v>
       </c>
@@ -1065,7 +1072,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" hidden="1">
       <c r="A21" s="6">
         <v>41153</v>
       </c>
@@ -1079,8 +1086,11 @@
       <c r="E21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1">
       <c r="B22" s="2">
         <v>5186</v>
       </c>
@@ -1097,7 +1107,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" hidden="1">
       <c r="A23" s="6">
         <v>41153</v>
       </c>
@@ -1117,7 +1127,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" hidden="1">
       <c r="A24" s="6">
         <v>41153</v>
       </c>
@@ -1137,7 +1147,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" hidden="1">
       <c r="A25" s="6">
         <v>41153</v>
       </c>
@@ -1157,7 +1167,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" hidden="1">
       <c r="A26" s="6">
         <v>43344</v>
       </c>
@@ -1177,7 +1187,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" hidden="1">
       <c r="A27" s="6">
         <v>41153</v>
       </c>
@@ -1197,7 +1207,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" hidden="1">
       <c r="A28" s="6"/>
       <c r="B28" s="3">
         <v>539</v>
@@ -1257,7 +1267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" hidden="1">
       <c r="B32" s="2">
         <v>5519</v>
       </c>
@@ -1268,6 +1278,9 @@
         <v>49</v>
       </c>
       <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1281,6 +1294,9 @@
       <c r="D33" t="s">
         <v>51</v>
       </c>
+      <c r="F33" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="2">
@@ -1306,6 +1322,9 @@
       <c r="D35" t="s">
         <v>53</v>
       </c>
+      <c r="F35" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="2">
@@ -1321,7 +1340,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" hidden="1">
       <c r="B37" s="2">
         <v>5152</v>
       </c>
@@ -1338,7 +1357,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" hidden="1">
       <c r="B38" s="2">
         <v>539</v>
       </c>
@@ -1422,10 +1441,26 @@
         <v>31</v>
       </c>
     </row>
+    <row r="44" spans="2:8">
+      <c r="B44">
+        <v>460</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H39">
+  <autoFilter ref="A1:H44">
     <filterColumn colId="4"/>
-    <filterColumn colId="7"/>
+    <filterColumn colId="7">
+      <filters blank="1"/>
+    </filterColumn>
   </autoFilter>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/campaign/Lawn Sign.Britannia.xlsx
+++ b/campaign/Lawn Sign.Britannia.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="71">
   <si>
     <t>Street Number</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>Chen</t>
+  </si>
+  <si>
+    <t>RIFFAT</t>
   </si>
 </sst>
 </file>
@@ -666,7 +669,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="B41" sqref="B41:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1409,6 +1412,9 @@
       <c r="C41" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="D41" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="E41" t="s">
         <v>31</v>
       </c>

--- a/campaign/Lawn Sign.Britannia.xlsx
+++ b/campaign/Lawn Sign.Britannia.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="73">
   <si>
     <t>Street Number</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>RIFFAT</t>
+  </si>
+  <si>
+    <t>Guildwood Way</t>
+  </si>
+  <si>
+    <t>Starwood Dr</t>
   </si>
 </sst>
 </file>
@@ -666,10 +672,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:D42"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1461,6 +1467,121 @@
         <v>31</v>
       </c>
     </row>
+    <row r="45" spans="2:8">
+      <c r="B45">
+        <v>5256</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46">
+        <v>5076</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47">
+        <v>5088</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48">
+        <v>5104</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49">
+        <v>5160</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50">
+        <v>5194</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51">
+        <v>5240</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52">
+        <v>5036</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53">
+        <v>5096</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54">
+        <v>5447</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55">
+        <v>720</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H44">
     <filterColumn colId="4"/>

--- a/campaign/Lawn Sign.Britannia.xlsx
+++ b/campaign/Lawn Sign.Britannia.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="73">
   <si>
     <t>Street Number</t>
   </si>
@@ -672,10 +672,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1477,6 +1477,9 @@
       <c r="F45" t="s">
         <v>31</v>
       </c>
+      <c r="G45" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46">
@@ -1488,6 +1491,9 @@
       <c r="F46" t="s">
         <v>31</v>
       </c>
+      <c r="G46" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47">
@@ -1499,6 +1505,9 @@
       <c r="F47" t="s">
         <v>31</v>
       </c>
+      <c r="G47" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48">
@@ -1510,8 +1519,11 @@
       <c r="F48" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="49" spans="2:6">
+      <c r="G48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
       <c r="B49">
         <v>5160</v>
       </c>
@@ -1521,8 +1533,11 @@
       <c r="F49" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="50" spans="2:6">
+      <c r="G49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
       <c r="B50">
         <v>5194</v>
       </c>
@@ -1532,8 +1547,11 @@
       <c r="F50" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="51" spans="2:6">
+      <c r="G50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
       <c r="B51">
         <v>5240</v>
       </c>
@@ -1543,8 +1561,11 @@
       <c r="F51" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="52" spans="2:6">
+      <c r="G51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
       <c r="B52">
         <v>5036</v>
       </c>
@@ -1554,8 +1575,11 @@
       <c r="F52" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="53" spans="2:6">
+      <c r="G52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
       <c r="B53">
         <v>5096</v>
       </c>
@@ -1565,8 +1589,11 @@
       <c r="F53" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="54" spans="2:6">
+      <c r="G53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
       <c r="B54">
         <v>5447</v>
       </c>
@@ -1574,12 +1601,56 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:7">
       <c r="B55">
         <v>720</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56">
+        <v>5145</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57">
+        <v>5065</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58">
+        <v>932</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59">
+        <v>720</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
